--- a/アンケート結果.xlsx
+++ b/アンケート結果.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\we\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\share\m2_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1585,7 +1585,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="100"/>
         <c:axId val="-1634924672"/>
         <c:axId val="-1500389568"/>
@@ -2213,7 +2213,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="-1498564576"/>
         <c:axId val="-1498445120"/>
@@ -2527,8 +2527,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="100"/>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-100"/>
         <c:axId val="-1448969520"/>
         <c:axId val="-1449001776"/>
       </c:barChart>
@@ -7224,15 +7224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>400048</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>751114</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7261,14 +7261,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -8311,8 +8311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
